--- a/delta2/evidence/dfir/2020-04-04-dfir--ransom-unknown--v1.1.xlsx
+++ b/delta2/evidence/dfir/2020-04-04-dfir--ransom-unknown--v1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/evidence/dfir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F804B433-75E2-B146-8D76-E02BA5922A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759664EE-F66A-5C43-9DBF-C10F814D5584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="-21100" windowWidth="38340" windowHeight="21100" activeTab="2" xr2:uid="{4FBEA496-5ECB-C248-B1D9-3E5612DBBE3F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Link" sheetId="9" r:id="rId1"/>
     <sheet name="General" sheetId="8" r:id="rId2"/>
     <sheet name="Alert" sheetId="12" r:id="rId3"/>
-    <sheet name="powershe" sheetId="1" r:id="rId4"/>
+    <sheet name="ProcessCreate" sheetId="1" r:id="rId4"/>
     <sheet name="FileEvent" sheetId="3" r:id="rId5"/>
     <sheet name="Netcon" sheetId="11" r:id="rId6"/>
     <sheet name="ProcessAccess" sheetId="2" r:id="rId7"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="137">
   <si>
     <t>Description</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Protocol</t>
   </si>
   <si>
-    <t>netcon--winos</t>
-  </si>
-  <si>
     <t>CommandLine</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
     <t>ServiceStartType</t>
   </si>
   <si>
-    <t>process-access--winos</t>
-  </si>
-  <si>
     <t>Access</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
     <t>cmd script snippet</t>
   </si>
   <si>
-    <t>cmd-script</t>
-  </si>
-  <si>
     <t>powershell.exe -ExecutionPolicy Bypass -File adbrute.ps1 -NoExit</t>
   </si>
   <si>
@@ -437,6 +428,36 @@
   </si>
   <si>
     <t>reg.exe add HKLM\Software\Microsoft\Windows NT\CurrentVersion\Image File Execution Options\taskgr.exe /f /v Debugger /t REG_SZ /d "Hotkey Disabled"</t>
+  </si>
+  <si>
+    <t>AlertSource [Sigma, EtPro]</t>
+  </si>
+  <si>
+    <t>edr specific data like [mde]</t>
+  </si>
+  <si>
+    <t>file-create--</t>
+  </si>
+  <si>
+    <t>process-create--</t>
+  </si>
+  <si>
+    <t>netcon--</t>
+  </si>
+  <si>
+    <t>process-access--</t>
+  </si>
+  <si>
+    <t>shell--</t>
+  </si>
+  <si>
+    <t>script--</t>
+  </si>
+  <si>
+    <t>script--cmd</t>
+  </si>
+  <si>
+    <t>Ioc Tag Like [TTP, C2, Tool, File, Account, Ip, ProcessSpawn, ProcessInjection, Url]</t>
   </si>
 </sst>
 </file>
@@ -533,7 +554,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -545,7 +566,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -559,7 +579,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,6 +586,7 @@
   <dxfs count="35">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1063,8 +1083,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D9" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:D9" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}" name="Table4" displayName="Table4" ref="A1:D10" totalsRowShown="0" headerRowDxfId="30">
+  <autoFilter ref="A1:D10" xr:uid="{C984C974-B940-014D-B081-9685F19A6DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2">
     <sortCondition ref="A1:A2"/>
   </sortState>
@@ -1093,8 +1113,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L21" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:L21" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}" name="Table1" displayName="Table1" ref="A1:L22" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A1:L22" xr:uid="{1A8EC758-5D33-4C42-8BDF-0E77E884B2B1}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L22">
+    <sortCondition ref="A1:A22"/>
+  </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{7F4E572F-19FC-1C42-BF21-EF3EAA1CF83A}" name="Index"/>
     <tableColumn id="3" xr3:uid="{5246F5AC-4F4A-BC4C-892F-2E08E3349789}" name="DataSource"/>
@@ -1114,8 +1137,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K31" totalsRowShown="0" headerRowDxfId="17">
-  <autoFilter ref="A1:K31" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}" name="Table5" displayName="Table5" ref="A1:K32" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="A1:K32" xr:uid="{7A14630A-FD1A-5947-BDBF-9AB6BB80806B}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{76C592A4-DC6F-6D43-92A4-408F9DA9250D}" name="Index"/>
     <tableColumn id="3" xr3:uid="{8DB66F33-29D6-F943-8797-F32327A212C4}" name="DataSource"/>
@@ -1191,8 +1214,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D2" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:D2" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}" name="Table6" displayName="Table6" ref="A1:D3" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A1:D3" xr:uid="{BE4EBF98-CFD7-C845-84F9-04F5815B2C8C}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{77268EB9-1251-9745-92E1-436BE6AE585B}" name="Index"/>
     <tableColumn id="3" xr3:uid="{59DDF428-3E0B-6643-8972-9BD2488E3FA7}" name="DataSource"/>
@@ -1527,7 +1550,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1542,29 +1565,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="8" t="s">
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -1572,19 +1595,19 @@
         <v>43925</v>
       </c>
       <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1626,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1624,37 +1647,37 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="H1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>6</v>
@@ -1669,6 +1692,9 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1713,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1703,40 +1729,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="G1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1785,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1773,34 +1802,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1809,9 +1838,9 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="F2" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1827,11 +1856,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1843,16 +1872,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1860,88 +1889,96 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="6" t="s">
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>106</v>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1961,33 +1998,33 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="102.33203125" style="6" customWidth="1"/>
     <col min="5" max="5" width="153.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1995,7 +2032,9 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="12"/>
+      <c r="C2" s="11" t="s">
+        <v>127</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2010,11 +2049,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2034,40 +2073,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2075,11 +2114,8 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>110</v>
+      <c r="B2" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="E2" s="6"/>
     </row>
@@ -2091,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2103,7 +2139,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E4" s="6"/>
     </row>
@@ -2115,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" s="6"/>
     </row>
@@ -2127,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6"/>
     </row>
@@ -2139,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7" s="6"/>
     </row>
@@ -2151,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E8" s="6"/>
     </row>
@@ -2163,7 +2199,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E9" s="6"/>
     </row>
@@ -2175,7 +2211,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E10" s="6"/>
     </row>
@@ -2187,7 +2223,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E11" s="6"/>
     </row>
@@ -2199,7 +2235,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E12" s="6"/>
     </row>
@@ -2211,7 +2247,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E13" s="6"/>
     </row>
@@ -2223,7 +2259,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E14" s="6"/>
     </row>
@@ -2235,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -2247,7 +2283,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E16" s="6"/>
     </row>
@@ -2259,7 +2295,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E17" s="6"/>
     </row>
@@ -2271,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E18" s="6"/>
     </row>
@@ -2283,11 +2319,11 @@
         <v>3</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2295,11 +2331,11 @@
         <v>3</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2307,9 +2343,21 @@
         <v>3</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2324,11 +2372,11 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2347,37 +2395,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2386,10 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -2397,10 +2442,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -2408,10 +2453,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2419,10 +2464,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
         <v>76</v>
-      </c>
-      <c r="D5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -2430,10 +2475,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2441,10 +2486,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -2452,10 +2497,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -2463,10 +2508,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -2474,10 +2519,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -2485,10 +2530,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -2496,10 +2541,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -2507,10 +2552,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -2518,10 +2563,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -2529,10 +2574,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -2540,10 +2585,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2551,10 +2596,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -2562,10 +2607,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2573,10 +2618,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2584,10 +2629,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2595,10 +2640,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2606,10 +2651,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2617,10 +2662,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2628,10 +2673,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2639,10 +2684,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2650,10 +2695,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2661,10 +2706,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2672,10 +2717,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2683,10 +2728,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2694,10 +2739,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2705,10 +2750,21 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2747,49 +2803,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2798,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +2874,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2837,7 +2893,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2846,22 +2902,22 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>6</v>
@@ -2875,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2894,7 +2950,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2907,7 +2963,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2916,12 +2972,15 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2937,11 +2996,11 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2954,7 +3013,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2963,21 +3022,31 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>107</v>
+        <v>134</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
